--- a/hue Bulbs, Strips and Modules.xlsx
+++ b/hue Bulbs, Strips and Modules.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="460" windowWidth="24900" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="3880" yWindow="460" windowWidth="24900" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
   <si>
     <t>Product Name</t>
   </si>
@@ -200,9 +200,6 @@
     <t>LWB*</t>
   </si>
   <si>
-    <t>!!!</t>
-  </si>
-  <si>
     <t>Dimmable Light</t>
   </si>
   <si>
@@ -237,6 +234,33 @@
   </si>
   <si>
     <t>XY Capable</t>
+  </si>
+  <si>
+    <t>Hue color candle</t>
+  </si>
+  <si>
+    <t>LCT012</t>
+  </si>
+  <si>
+    <t>Hue ambiance candle</t>
+  </si>
+  <si>
+    <t>LTW012</t>
+  </si>
+  <si>
+    <t>!!! Just Dimable</t>
+  </si>
+  <si>
+    <t>New E14 Bulbs</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>LST*, LLC*, -LLC020 -LLC002, -LST002</t>
+  </si>
+  <si>
+    <t>LCT*, LLM*, -LCT010, -LCT014, -LCT011, -LCT012</t>
   </si>
 </sst>
 </file>
@@ -290,11 +314,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -887,7 +912,7 @@
         <v>54</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1028,61 +1053,88 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>71</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
+      <c r="A23" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>55</v>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -1090,45 +1142,97 @@
         <v>60</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="C31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="C33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:7" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="33" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="34" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="35" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="36" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="37" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+      <c r="G36" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:7" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:7" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:7" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:7" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:7" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
